--- a/output/SAMPLE_INPUT_50snippets_tvn.xlsx
+++ b/output/SAMPLE_INPUT_50snippets_tvn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>AWC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>TVN</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CTC</t>
         </is>
       </c>
     </row>
@@ -476,7 +486,13 @@
         <v>232.2</v>
       </c>
       <c r="E2" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F2" t="n">
         <v>1.29</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +511,13 @@
         <v>5698.34</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +536,13 @@
         <v>9278.33</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.065</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -533,12 +561,18 @@
         <v>10065.655</v>
       </c>
       <c r="E5" t="n">
+        <v>4.215</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.55</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -546,32 +580,44 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11413.92</v>
+        <v>11373.16</v>
       </c>
       <c r="D6" t="n">
-        <v>11443.92</v>
+        <v>11403.16</v>
       </c>
       <c r="E6" t="n">
-        <v>19.395</v>
+        <v>2.33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.355</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8:36 AM</t>
+          <t>8:37 AM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11475.115</v>
+        <v>11516.145</v>
       </c>
       <c r="D7" t="n">
-        <v>11505.115</v>
+        <v>11546.145</v>
       </c>
       <c r="E7" t="n">
-        <v>4.255</v>
+        <v>3.955</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28.035</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -590,31 +636,43 @@
         <v>11641.81</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>59.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8:40 AM</t>
+          <t>8:41 AM</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11680.89</v>
+        <v>11729.405</v>
       </c>
       <c r="D9" t="n">
-        <v>11710.89</v>
+        <v>11759.405</v>
       </c>
       <c r="E9" t="n">
-        <v>6.21</v>
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>21.885</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -622,792 +680,1019 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11789.26</v>
+        <v>11822.4</v>
       </c>
       <c r="D10" t="n">
-        <v>11819.26</v>
+        <v>11852.4</v>
       </c>
       <c r="E10" t="n">
-        <v>4.57</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8:43 AM</t>
+          <t>8:44 AM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11862.452</v>
+        <v>11919.3225</v>
       </c>
       <c r="D11" t="n">
-        <v>11892.452</v>
+        <v>11949.3225</v>
       </c>
       <c r="E11" t="n">
-        <v>11.024</v>
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8:44 AM</t>
+          <t>8:46 AM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11946.435</v>
+        <v>12035.575</v>
       </c>
       <c r="D12" t="n">
-        <v>11976.435</v>
+        <v>12065.575</v>
       </c>
       <c r="E12" t="n">
-        <v>10.61</v>
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8:45 AM</t>
+          <t>8:48 AM</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12010.7825</v>
+        <v>12167.005</v>
       </c>
       <c r="D13" t="n">
-        <v>12040.7825</v>
+        <v>12197.005</v>
       </c>
       <c r="E13" t="n">
-        <v>2.9275</v>
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9.125</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8:47 AM</t>
+          <t>8:57 AM</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12088.72</v>
+        <v>12725.265</v>
       </c>
       <c r="D14" t="n">
-        <v>12118.72</v>
+        <v>12755.265</v>
       </c>
       <c r="E14" t="n">
-        <v>32.41</v>
+        <v>4.76</v>
+      </c>
+      <c r="F14" t="n">
+        <v>43.895</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8:48 AM</t>
+          <t>8:59 AM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>12167.005</v>
+        <v>12831.085</v>
       </c>
       <c r="D15" t="n">
-        <v>12197.005</v>
+        <v>12861.085</v>
       </c>
       <c r="E15" t="n">
-        <v>9.125</v>
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>51.785</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8:57 AM</t>
+          <t>9:01 AM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12725.265</v>
+        <v>12941.465</v>
       </c>
       <c r="D16" t="n">
-        <v>12755.265</v>
+        <v>12971.465</v>
       </c>
       <c r="E16" t="n">
-        <v>43.895</v>
+        <v>2.38</v>
+      </c>
+      <c r="F16" t="n">
+        <v>48.73</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8:59 AM</t>
+          <t>9:03 AM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12831.085</v>
+        <v>13056.61</v>
       </c>
       <c r="D17" t="n">
-        <v>12861.085</v>
+        <v>13086.61</v>
       </c>
       <c r="E17" t="n">
-        <v>51.785</v>
+        <v>3.23</v>
+      </c>
+      <c r="F17" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9:02 AM</t>
+          <t>9:05 AM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13043.06</v>
+        <v>13169.08</v>
       </c>
       <c r="D18" t="n">
-        <v>13073.06</v>
+        <v>13199.08</v>
       </c>
       <c r="E18" t="n">
-        <v>1.68</v>
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9:04 AM</t>
+          <t>9:06 AM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13136.515</v>
+        <v>13276.226667</v>
       </c>
       <c r="D19" t="n">
-        <v>13166.515</v>
+        <v>13306.226667</v>
       </c>
       <c r="E19" t="n">
-        <v>15.63</v>
+        <v>1.58</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.873333</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9:06 AM</t>
+          <t>9:08 AM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13276.226667</v>
+        <v>13376.97</v>
       </c>
       <c r="D20" t="n">
-        <v>13306.226667</v>
+        <v>13406.97</v>
       </c>
       <c r="E20" t="n">
-        <v>5.873333</v>
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9:09 AM</t>
+          <t>9:10 AM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13418.07</v>
+        <v>13469.65</v>
       </c>
       <c r="D21" t="n">
-        <v>13448.07</v>
+        <v>13499.65</v>
       </c>
       <c r="E21" t="n">
-        <v>17.015</v>
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9:10 AM</t>
+          <t>9:11 AM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13489.7525</v>
+        <v>13570.62</v>
       </c>
       <c r="D22" t="n">
-        <v>13519.7525</v>
+        <v>13600.62</v>
       </c>
       <c r="E22" t="n">
-        <v>4.3225</v>
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9:11 AM</t>
+          <t>9:15 AM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13570.62</v>
+        <v>13803.455</v>
       </c>
       <c r="D23" t="n">
-        <v>13600.62</v>
+        <v>13833.455</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>45.39</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9:15 AM</t>
+          <t>9:17 AM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13803.455</v>
+        <v>13937.845</v>
       </c>
       <c r="D24" t="n">
-        <v>13833.455</v>
+        <v>13967.845</v>
       </c>
       <c r="E24" t="n">
-        <v>45.39</v>
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>30.79</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9:17 AM</t>
+          <t>9:20 AM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13937.845</v>
+        <v>14073.82</v>
       </c>
       <c r="D25" t="n">
-        <v>13967.845</v>
+        <v>14103.82</v>
       </c>
       <c r="E25" t="n">
-        <v>30.79</v>
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>30.935</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9:18 AM</t>
+          <t>9:22 AM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14001.8</v>
+        <v>14186.425</v>
       </c>
       <c r="D26" t="n">
-        <v>14031.8</v>
+        <v>14216.425</v>
       </c>
       <c r="E26" t="n">
-        <v>34.39</v>
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9:21 AM</t>
+          <t>9:24 AM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>14149.596667</v>
+        <v>14324.6875</v>
       </c>
       <c r="D27" t="n">
-        <v>14179.596667</v>
+        <v>14354.6875</v>
       </c>
       <c r="E27" t="n">
-        <v>5.23</v>
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9:24 AM</t>
+          <t>9:26 AM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>14308.02</v>
+        <v>14442.785</v>
       </c>
       <c r="D28" t="n">
-        <v>14338.02</v>
+        <v>14472.785</v>
       </c>
       <c r="E28" t="n">
-        <v>4.635</v>
+        <v>8.75</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9:25 AM</t>
+          <t>9:28 AM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>14418.09</v>
+        <v>14565.195</v>
       </c>
       <c r="D29" t="n">
-        <v>14448.09</v>
+        <v>14595.195</v>
       </c>
       <c r="E29" t="n">
-        <v>3.05</v>
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>27.295</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9:27 AM</t>
+          <t>9:33 AM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>14487.21</v>
+        <v>14854.345</v>
       </c>
       <c r="D30" t="n">
-        <v>14517.21</v>
+        <v>14884.345</v>
       </c>
       <c r="E30" t="n">
-        <v>2.67</v>
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9:29 AM</t>
+          <t>9:34 AM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>14621.995</v>
+        <v>14960.895</v>
       </c>
       <c r="D31" t="n">
-        <v>14651.995</v>
+        <v>14990.895</v>
       </c>
       <c r="E31" t="n">
-        <v>113.915</v>
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>18.025</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9:33 AM</t>
+          <t>9:37 AM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>14894.885</v>
+        <v>15106.36</v>
       </c>
       <c r="D32" t="n">
-        <v>14924.885</v>
+        <v>15136.36</v>
       </c>
       <c r="E32" t="n">
-        <v>30.35</v>
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>52.755</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9:34 AM</t>
+          <t>9:40 AM</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>14960.895</v>
+        <v>15282.67</v>
       </c>
       <c r="D33" t="n">
-        <v>14990.895</v>
+        <v>15312.67</v>
       </c>
       <c r="E33" t="n">
-        <v>18.025</v>
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9:36 AM</t>
+          <t>9:44 AM</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15056.18</v>
+        <v>15517.59</v>
       </c>
       <c r="D34" t="n">
-        <v>15086.18</v>
+        <v>15547.59</v>
       </c>
       <c r="E34" t="n">
-        <v>24.46</v>
+        <v>20.516667</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9:39 AM</t>
+          <t>10:09 A</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>15258.83</v>
+        <v>17019.785</v>
       </c>
       <c r="D35" t="n">
-        <v>15288.83</v>
+        <v>17049.785</v>
       </c>
       <c r="E35" t="n">
-        <v>4.275</v>
+        <v>8.845000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9:44 AM</t>
+          <t>10:13 A</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15517.59</v>
+        <v>17250.1</v>
       </c>
       <c r="D36" t="n">
-        <v>15547.59</v>
+        <v>17280.1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.58</v>
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10:13 A</t>
+          <t>10:15 A</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>17250.1</v>
+        <v>17413.61</v>
       </c>
       <c r="D37" t="n">
-        <v>17280.1</v>
+        <v>17443.61</v>
       </c>
       <c r="E37" t="n">
-        <v>3.83</v>
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>676.14</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>581</v>
+        <v>983</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10:15 A</t>
+          <t>1:36 PM</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17413.61</v>
+        <v>29464.66</v>
       </c>
       <c r="D38" t="n">
-        <v>17443.61</v>
+        <v>29494.66</v>
       </c>
       <c r="E38" t="n">
-        <v>676.14</v>
+        <v>0.803333</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>983</v>
+        <v>999</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1:36 PM</t>
+          <t>1:44 PM</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>29464.66</v>
+        <v>29954.343333</v>
       </c>
       <c r="D39" t="n">
-        <v>29494.66</v>
+        <v>29984.343333</v>
       </c>
       <c r="E39" t="n">
-        <v>0.78</v>
+        <v>3.856667</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.826667</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>999</v>
+        <v>1043</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1:44 PM</t>
+          <t>2:06 PM</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>29954.343333</v>
+        <v>31284.45</v>
       </c>
       <c r="D40" t="n">
-        <v>29984.343333</v>
+        <v>31314.45</v>
       </c>
       <c r="E40" t="n">
-        <v>0.826667</v>
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1043</v>
+        <v>1148</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2:06 PM</t>
+          <t>2:59 PM</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>31284.45</v>
+        <v>34414.095</v>
       </c>
       <c r="D41" t="n">
-        <v>31314.45</v>
+        <v>34444.095</v>
       </c>
       <c r="E41" t="n">
-        <v>1.12</v>
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1148</v>
+        <v>1383</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2:59 PM</t>
+          <t>4:56 PM</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>34414.095</v>
+        <v>41472.38</v>
       </c>
       <c r="D42" t="n">
-        <v>34444.095</v>
+        <v>41502.38</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8</v>
+        <v>7.295</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4:56 PM</t>
+          <t>4:58 PM</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>41472.38</v>
+        <v>41596.02</v>
       </c>
       <c r="D43" t="n">
-        <v>41502.38</v>
+        <v>41626.02</v>
       </c>
       <c r="E43" t="n">
-        <v>1.325</v>
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1387</v>
+        <v>1397</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4:58 PM</t>
+          <t>5:04 PM</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>41596.02</v>
+        <v>41905.92</v>
       </c>
       <c r="D44" t="n">
-        <v>41626.02</v>
+        <v>41935.92</v>
       </c>
       <c r="E44" t="n">
-        <v>1.94</v>
+        <v>7.78</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1397</v>
+        <v>1458</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5:04 PM</t>
+          <t>5:34 PM</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>41905.92</v>
+        <v>43728.35</v>
       </c>
       <c r="D45" t="n">
-        <v>41935.92</v>
+        <v>43758.35</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>3.405</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1458</v>
+        <v>1547</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5:34 PM</t>
+          <t>6:19 PM</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>43728.35</v>
+        <v>46409.81</v>
       </c>
       <c r="D46" t="n">
-        <v>43758.35</v>
+        <v>46439.81</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5649999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6:19 PM</t>
+          <t>6:20 PM</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>46409.81</v>
+        <v>46502.28</v>
       </c>
       <c r="D47" t="n">
-        <v>46439.81</v>
+        <v>46532.28</v>
       </c>
       <c r="E47" t="n">
-        <v>1.36</v>
+        <v>39.27</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1551</v>
+        <v>1558</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6:20 PM</t>
+          <t>6:24 PM</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>46502.28</v>
+        <v>46717.07</v>
       </c>
       <c r="D48" t="n">
-        <v>46532.28</v>
+        <v>46747.07</v>
       </c>
       <c r="E48" t="n">
-        <v>1.01</v>
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6:24 PM</t>
+          <t>6:25 PM</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46717.07</v>
+        <v>46813.12</v>
       </c>
       <c r="D49" t="n">
-        <v>46747.07</v>
+        <v>46843.12</v>
       </c>
       <c r="E49" t="n">
-        <v>0.64</v>
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1561</v>
+        <v>1608</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6:25 PM</t>
+          <t>6:49 PM</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>46813.12</v>
+        <v>48231.23</v>
       </c>
       <c r="D50" t="n">
-        <v>46843.12</v>
+        <v>48261.23</v>
       </c>
       <c r="E50" t="n">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1608</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>6:49 PM</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>48231.23</v>
-      </c>
-      <c r="D51" t="n">
-        <v>48261.23</v>
-      </c>
-      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.695</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/SAMPLE_INPUT_50snippets_tvn.xlsx
+++ b/output/SAMPLE_INPUT_50snippets_tvn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +572,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11373.16</v>
+        <v>11413.92</v>
       </c>
       <c r="D6" t="n">
-        <v>11403.16</v>
+        <v>11443.92</v>
       </c>
       <c r="E6" t="n">
-        <v>2.33</v>
+        <v>1.94</v>
       </c>
       <c r="F6" t="n">
-        <v>3.355</v>
+        <v>19.395</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -672,24 +672,24 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8:42 AM</t>
+          <t>8:43 AM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11822.4</v>
+        <v>11862.452</v>
       </c>
       <c r="D10" t="n">
-        <v>11852.4</v>
+        <v>11892.452</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>8.73</v>
+        <v>11.024</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -697,49 +697,49 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8:44 AM</t>
+          <t>8:45 AM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>11919.3225</v>
+        <v>11968.34</v>
       </c>
       <c r="D11" t="n">
-        <v>11949.3225</v>
+        <v>11998.34</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.18</v>
+        <v>13.115</v>
       </c>
       <c r="G11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8:46 AM</t>
+          <t>8:47 AM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12035.575</v>
+        <v>12088.72</v>
       </c>
       <c r="D12" t="n">
-        <v>12065.575</v>
+        <v>12118.72</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2.95</v>
+        <v>32.41</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -755,16 +755,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12167.005</v>
+        <v>12193.74</v>
       </c>
       <c r="D13" t="n">
-        <v>12197.005</v>
+        <v>12223.74</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.355</v>
       </c>
       <c r="F13" t="n">
-        <v>9.125</v>
+        <v>58.128333</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>13169.08</v>
+        <v>13177.29</v>
       </c>
       <c r="D18" t="n">
-        <v>13199.08</v>
+        <v>13207.29</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.32</v>
+        <v>60.2</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -897,49 +897,49 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9:06 AM</t>
+          <t>9:07 AM</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13276.226667</v>
+        <v>13309.11</v>
       </c>
       <c r="D19" t="n">
-        <v>13306.226667</v>
+        <v>13339.11</v>
       </c>
       <c r="E19" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5.873333</v>
+        <v>67.56</v>
       </c>
       <c r="G19" t="n">
-        <v>0.333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9:08 AM</t>
+          <t>9:09 AM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13376.97</v>
+        <v>13418.07</v>
       </c>
       <c r="D20" t="n">
-        <v>13406.97</v>
+        <v>13448.07</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>18.32</v>
+        <v>17.015</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -947,24 +947,24 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9:10 AM</t>
+          <t>9:11 AM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13469.65</v>
+        <v>13527.81</v>
       </c>
       <c r="D21" t="n">
-        <v>13499.65</v>
+        <v>13557.81</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3.12</v>
+        <v>40.62</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -972,24 +972,24 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9:11 AM</t>
+          <t>9:12 AM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13570.62</v>
+        <v>13619.07</v>
       </c>
       <c r="D22" t="n">
-        <v>13600.62</v>
+        <v>13649.07</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>49.685</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1030,16 +1030,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13937.845</v>
+        <v>13906.515</v>
       </c>
       <c r="D24" t="n">
-        <v>13967.845</v>
+        <v>13936.515</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>30.79</v>
+        <v>11.275</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1047,24 +1047,24 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9:20 AM</t>
+          <t>9:18 AM</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14073.82</v>
+        <v>14001.8</v>
       </c>
       <c r="D25" t="n">
-        <v>14103.82</v>
+        <v>14031.8</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>30.935</v>
+        <v>34.39</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1080,16 +1080,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14186.425</v>
+        <v>14204.495</v>
       </c>
       <c r="D26" t="n">
-        <v>14216.425</v>
+        <v>14234.495</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>4.27</v>
+        <v>40.96</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1097,24 +1097,24 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9:24 AM</t>
+          <t>9:25 AM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>14324.6875</v>
+        <v>14376.725</v>
       </c>
       <c r="D27" t="n">
-        <v>14354.6875</v>
+        <v>14406.725</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>11.85</v>
+        <v>15.025</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1122,49 +1122,49 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9:26 AM</t>
+          <t>9:27 AM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>14442.785</v>
+        <v>14495.41</v>
       </c>
       <c r="D28" t="n">
-        <v>14472.785</v>
+        <v>14525.41</v>
       </c>
       <c r="E28" t="n">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>7.99</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9:28 AM</t>
+          <t>9:29 AM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>14565.195</v>
+        <v>14621.995</v>
       </c>
       <c r="D29" t="n">
-        <v>14595.195</v>
+        <v>14651.995</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.415</v>
       </c>
       <c r="F29" t="n">
-        <v>27.295</v>
+        <v>113.915</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>14854.345</v>
+        <v>14894.885</v>
       </c>
       <c r="D30" t="n">
-        <v>14884.345</v>
+        <v>14924.885</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>19.64</v>
+        <v>30.35</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1197,24 +1197,24 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9:34 AM</t>
+          <t>9:35 AM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>14960.895</v>
+        <v>15000.94</v>
       </c>
       <c r="D31" t="n">
-        <v>14990.895</v>
+        <v>15030.94</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>18.025</v>
+        <v>51.39</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1422,24 +1422,24 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2:06 PM</t>
+          <t>2:02 PM</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31284.45</v>
+        <v>31029.245</v>
       </c>
       <c r="D40" t="n">
-        <v>31314.45</v>
+        <v>31059.245</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>17.475</v>
       </c>
       <c r="F40" t="n">
-        <v>1.12</v>
+        <v>0.545</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1447,24 +1447,24 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1148</v>
+        <v>1043</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2:59 PM</t>
+          <t>2:06 PM</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34414.095</v>
+        <v>31284.45</v>
       </c>
       <c r="D41" t="n">
-        <v>34444.095</v>
+        <v>31314.45</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8</v>
+        <v>1.12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1472,24 +1472,24 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1383</v>
+        <v>1148</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4:56 PM</t>
+          <t>2:59 PM</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>41472.38</v>
+        <v>34414.095</v>
       </c>
       <c r="D42" t="n">
-        <v>41502.38</v>
+        <v>34444.095</v>
       </c>
       <c r="E42" t="n">
-        <v>7.295</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.325</v>
+        <v>0.8</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1497,24 +1497,24 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4:58 PM</t>
+          <t>4:56 PM</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>41596.02</v>
+        <v>41472.38</v>
       </c>
       <c r="D43" t="n">
-        <v>41626.02</v>
+        <v>41502.38</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>7.295</v>
       </c>
       <c r="F43" t="n">
-        <v>1.94</v>
+        <v>1.325</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1522,74 +1522,74 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5:04 PM</t>
+          <t>4:59 PM</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>41905.92</v>
+        <v>41640.85</v>
       </c>
       <c r="D44" t="n">
-        <v>41935.92</v>
+        <v>41670.85</v>
       </c>
       <c r="E44" t="n">
-        <v>7.78</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>3.15</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1458</v>
+        <v>1397</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5:34 PM</t>
+          <t>5:04 PM</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>43728.35</v>
+        <v>41905.92</v>
       </c>
       <c r="D45" t="n">
-        <v>43758.35</v>
+        <v>41935.92</v>
       </c>
       <c r="E45" t="n">
-        <v>3.405</v>
+        <v>7.78</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5649999999999999</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1547</v>
+        <v>1458</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6:19 PM</t>
+          <t>5:34 PM</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>46409.81</v>
+        <v>43728.35</v>
       </c>
       <c r="D46" t="n">
-        <v>46439.81</v>
+        <v>43758.35</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3.405</v>
       </c>
       <c r="F46" t="n">
-        <v>1.36</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1597,74 +1597,74 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6:20 PM</t>
+          <t>6:19 PM</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>46502.28</v>
+        <v>46409.81</v>
       </c>
       <c r="D47" t="n">
-        <v>46532.28</v>
+        <v>46439.81</v>
       </c>
       <c r="E47" t="n">
-        <v>39.27</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6:24 PM</t>
+          <t>6:20 PM</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>46717.07</v>
+        <v>46502.28</v>
       </c>
       <c r="D48" t="n">
-        <v>46747.07</v>
+        <v>46532.28</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>39.27</v>
       </c>
       <c r="F48" t="n">
-        <v>0.64</v>
+        <v>1.01</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6:25 PM</t>
+          <t>6:24 PM</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46813.12</v>
+        <v>46717.07</v>
       </c>
       <c r="D49" t="n">
-        <v>46843.12</v>
+        <v>46747.07</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1.03</v>
+        <v>0.64</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1672,26 +1672,51 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
+        <v>1561</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6:25 PM</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>46813.12</v>
+      </c>
+      <c r="D50" t="n">
+        <v>46843.12</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>1608</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>6:49 PM</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C51" t="n">
         <v>48231.23</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D51" t="n">
         <v>48261.23</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.695</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/SAMPLE_INPUT_50snippets_tvn.xlsx
+++ b/output/SAMPLE_INPUT_50snippets_tvn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>SegStart</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SegEnd</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>AWC</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>TVN</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTC</t>
         </is>
@@ -474,24 +469,19 @@
       <c r="A2" t="n">
         <v>7</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5:28 AM</t>
-        </is>
+      <c r="B2" t="n">
+        <v>202.2</v>
       </c>
       <c r="C2" t="n">
-        <v>202.2</v>
+        <v>232.2</v>
       </c>
       <c r="D2" t="n">
-        <v>232.2</v>
+        <v>11.26</v>
       </c>
       <c r="E2" t="n">
-        <v>11.26</v>
+        <v>1.29</v>
       </c>
       <c r="F2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -499,24 +489,19 @@
       <c r="A3" t="n">
         <v>189</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7:00 AM</t>
-        </is>
+      <c r="B3" t="n">
+        <v>5668.34</v>
       </c>
       <c r="C3" t="n">
-        <v>5668.34</v>
+        <v>5698.34</v>
       </c>
       <c r="D3" t="n">
-        <v>5698.34</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,24 +509,19 @@
       <c r="A4" t="n">
         <v>309</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7:59 AM</t>
-        </is>
+      <c r="B4" t="n">
+        <v>9248.33</v>
       </c>
       <c r="C4" t="n">
-        <v>9248.33</v>
+        <v>9278.33</v>
       </c>
       <c r="D4" t="n">
-        <v>9278.33</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.065</v>
       </c>
       <c r="F4" t="n">
-        <v>1.065</v>
-      </c>
-      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -549,24 +529,19 @@
       <c r="A5" t="n">
         <v>335</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>8:12 AM</t>
-        </is>
+      <c r="B5" t="n">
+        <v>10035.655</v>
       </c>
       <c r="C5" t="n">
-        <v>10035.655</v>
+        <v>10065.655</v>
       </c>
       <c r="D5" t="n">
-        <v>10065.655</v>
+        <v>4.215</v>
       </c>
       <c r="E5" t="n">
-        <v>4.215</v>
+        <v>1.55</v>
       </c>
       <c r="F5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -574,24 +549,19 @@
       <c r="A6" t="n">
         <v>381</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>8:35 AM</t>
-        </is>
+      <c r="B6" t="n">
+        <v>11413.92</v>
       </c>
       <c r="C6" t="n">
-        <v>11413.92</v>
+        <v>11443.92</v>
       </c>
       <c r="D6" t="n">
-        <v>11443.92</v>
+        <v>1.94</v>
       </c>
       <c r="E6" t="n">
-        <v>1.94</v>
+        <v>19.395</v>
       </c>
       <c r="F6" t="n">
-        <v>19.395</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -599,24 +569,19 @@
       <c r="A7" t="n">
         <v>384</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>8:37 AM</t>
-        </is>
+      <c r="B7" t="n">
+        <v>11516.145</v>
       </c>
       <c r="C7" t="n">
-        <v>11516.145</v>
+        <v>11546.145</v>
       </c>
       <c r="D7" t="n">
-        <v>11546.145</v>
+        <v>3.955</v>
       </c>
       <c r="E7" t="n">
-        <v>3.955</v>
+        <v>28.035</v>
       </c>
       <c r="F7" t="n">
-        <v>28.035</v>
-      </c>
-      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -624,24 +589,19 @@
       <c r="A8" t="n">
         <v>388</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>8:39 AM</t>
-        </is>
+      <c r="B8" t="n">
+        <v>11611.81</v>
       </c>
       <c r="C8" t="n">
-        <v>11611.81</v>
+        <v>11641.81</v>
       </c>
       <c r="D8" t="n">
-        <v>11641.81</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>59.97</v>
       </c>
       <c r="F8" t="n">
-        <v>59.97</v>
-      </c>
-      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -649,24 +609,19 @@
       <c r="A9" t="n">
         <v>391</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8:41 AM</t>
-        </is>
+      <c r="B9" t="n">
+        <v>11729.405</v>
       </c>
       <c r="C9" t="n">
-        <v>11729.405</v>
+        <v>11759.405</v>
       </c>
       <c r="D9" t="n">
-        <v>11759.405</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>21.885</v>
       </c>
       <c r="F9" t="n">
-        <v>21.885</v>
-      </c>
-      <c r="G9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -674,24 +629,19 @@
       <c r="A10" t="n">
         <v>396</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8:43 AM</t>
-        </is>
+      <c r="B10" t="n">
+        <v>11862.452</v>
       </c>
       <c r="C10" t="n">
-        <v>11862.452</v>
+        <v>11892.452</v>
       </c>
       <c r="D10" t="n">
-        <v>11892.452</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>11.024</v>
       </c>
       <c r="F10" t="n">
-        <v>11.024</v>
-      </c>
-      <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -699,24 +649,19 @@
       <c r="A11" t="n">
         <v>399</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8:45 AM</t>
-        </is>
+      <c r="B11" t="n">
+        <v>11968.34</v>
       </c>
       <c r="C11" t="n">
-        <v>11968.34</v>
+        <v>11998.34</v>
       </c>
       <c r="D11" t="n">
-        <v>11998.34</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>13.115</v>
       </c>
       <c r="F11" t="n">
-        <v>13.115</v>
-      </c>
-      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -724,24 +669,19 @@
       <c r="A12" t="n">
         <v>403</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>8:47 AM</t>
-        </is>
+      <c r="B12" t="n">
+        <v>12088.72</v>
       </c>
       <c r="C12" t="n">
-        <v>12088.72</v>
+        <v>12118.72</v>
       </c>
       <c r="D12" t="n">
-        <v>12118.72</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>32.41</v>
       </c>
       <c r="F12" t="n">
-        <v>32.41</v>
-      </c>
-      <c r="G12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,24 +689,19 @@
       <c r="A13" t="n">
         <v>407</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>8:48 AM</t>
-        </is>
+      <c r="B13" t="n">
+        <v>12193.74</v>
       </c>
       <c r="C13" t="n">
-        <v>12193.74</v>
+        <v>12223.74</v>
       </c>
       <c r="D13" t="n">
-        <v>12223.74</v>
+        <v>1.355</v>
       </c>
       <c r="E13" t="n">
-        <v>1.355</v>
+        <v>58.128333</v>
       </c>
       <c r="F13" t="n">
-        <v>58.128333</v>
-      </c>
-      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -774,24 +709,19 @@
       <c r="A14" t="n">
         <v>425</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>8:57 AM</t>
-        </is>
+      <c r="B14" t="n">
+        <v>12725.265</v>
       </c>
       <c r="C14" t="n">
-        <v>12725.265</v>
+        <v>12755.265</v>
       </c>
       <c r="D14" t="n">
-        <v>12755.265</v>
+        <v>4.76</v>
       </c>
       <c r="E14" t="n">
-        <v>4.76</v>
+        <v>43.895</v>
       </c>
       <c r="F14" t="n">
-        <v>43.895</v>
-      </c>
-      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -799,24 +729,19 @@
       <c r="A15" t="n">
         <v>428</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>8:59 AM</t>
-        </is>
+      <c r="B15" t="n">
+        <v>12831.085</v>
       </c>
       <c r="C15" t="n">
-        <v>12831.085</v>
+        <v>12861.085</v>
       </c>
       <c r="D15" t="n">
-        <v>12861.085</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>51.785</v>
       </c>
       <c r="F15" t="n">
-        <v>51.785</v>
-      </c>
-      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +749,19 @@
       <c r="A16" t="n">
         <v>432</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>9:01 AM</t>
-        </is>
+      <c r="B16" t="n">
+        <v>12941.465</v>
       </c>
       <c r="C16" t="n">
-        <v>12941.465</v>
+        <v>12971.465</v>
       </c>
       <c r="D16" t="n">
-        <v>12971.465</v>
+        <v>2.38</v>
       </c>
       <c r="E16" t="n">
-        <v>2.38</v>
+        <v>48.73</v>
       </c>
       <c r="F16" t="n">
-        <v>48.73</v>
-      </c>
-      <c r="G16" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -849,24 +769,19 @@
       <c r="A17" t="n">
         <v>436</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>9:03 AM</t>
-        </is>
+      <c r="B17" t="n">
+        <v>13056.61</v>
       </c>
       <c r="C17" t="n">
-        <v>13056.61</v>
+        <v>13086.61</v>
       </c>
       <c r="D17" t="n">
-        <v>13086.61</v>
+        <v>3.23</v>
       </c>
       <c r="E17" t="n">
-        <v>3.23</v>
+        <v>13.92</v>
       </c>
       <c r="F17" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="G17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,24 +789,19 @@
       <c r="A18" t="n">
         <v>440</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>9:05 AM</t>
-        </is>
+      <c r="B18" t="n">
+        <v>13177.29</v>
       </c>
       <c r="C18" t="n">
-        <v>13177.29</v>
+        <v>13207.29</v>
       </c>
       <c r="D18" t="n">
-        <v>13207.29</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>60.2</v>
       </c>
       <c r="F18" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="G18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -899,24 +809,19 @@
       <c r="A19" t="n">
         <v>444</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>9:07 AM</t>
-        </is>
+      <c r="B19" t="n">
+        <v>13309.11</v>
       </c>
       <c r="C19" t="n">
-        <v>13309.11</v>
+        <v>13339.11</v>
       </c>
       <c r="D19" t="n">
-        <v>13339.11</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>67.56</v>
       </c>
       <c r="F19" t="n">
-        <v>67.56</v>
-      </c>
-      <c r="G19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -924,24 +829,19 @@
       <c r="A20" t="n">
         <v>448</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>9:09 AM</t>
-        </is>
+      <c r="B20" t="n">
+        <v>13418.07</v>
       </c>
       <c r="C20" t="n">
-        <v>13418.07</v>
+        <v>13448.07</v>
       </c>
       <c r="D20" t="n">
-        <v>13448.07</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>17.015</v>
       </c>
       <c r="F20" t="n">
-        <v>17.015</v>
-      </c>
-      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -949,24 +849,19 @@
       <c r="A21" t="n">
         <v>451</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>9:11 AM</t>
-        </is>
+      <c r="B21" t="n">
+        <v>13527.81</v>
       </c>
       <c r="C21" t="n">
-        <v>13527.81</v>
+        <v>13557.81</v>
       </c>
       <c r="D21" t="n">
-        <v>13557.81</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>40.62</v>
       </c>
       <c r="F21" t="n">
-        <v>40.62</v>
-      </c>
-      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -974,24 +869,19 @@
       <c r="A22" t="n">
         <v>454</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>9:12 AM</t>
-        </is>
+      <c r="B22" t="n">
+        <v>13619.07</v>
       </c>
       <c r="C22" t="n">
-        <v>13619.07</v>
+        <v>13649.07</v>
       </c>
       <c r="D22" t="n">
-        <v>13649.07</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>49.685</v>
       </c>
       <c r="F22" t="n">
-        <v>49.685</v>
-      </c>
-      <c r="G22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -999,24 +889,19 @@
       <c r="A23" t="n">
         <v>461</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>9:15 AM</t>
-        </is>
+      <c r="B23" t="n">
+        <v>13803.455</v>
       </c>
       <c r="C23" t="n">
-        <v>13803.455</v>
+        <v>13833.455</v>
       </c>
       <c r="D23" t="n">
-        <v>13833.455</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>45.39</v>
       </c>
       <c r="F23" t="n">
-        <v>45.39</v>
-      </c>
-      <c r="G23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1024,24 +909,19 @@
       <c r="A24" t="n">
         <v>464</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>9:17 AM</t>
-        </is>
+      <c r="B24" t="n">
+        <v>13906.515</v>
       </c>
       <c r="C24" t="n">
-        <v>13906.515</v>
+        <v>13936.515</v>
       </c>
       <c r="D24" t="n">
-        <v>13936.515</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>11.275</v>
       </c>
       <c r="F24" t="n">
-        <v>11.275</v>
-      </c>
-      <c r="G24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1049,24 +929,19 @@
       <c r="A25" t="n">
         <v>467</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>9:18 AM</t>
-        </is>
+      <c r="B25" t="n">
+        <v>14001.8</v>
       </c>
       <c r="C25" t="n">
-        <v>14001.8</v>
+        <v>14031.8</v>
       </c>
       <c r="D25" t="n">
-        <v>14031.8</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>34.39</v>
       </c>
       <c r="F25" t="n">
-        <v>34.39</v>
-      </c>
-      <c r="G25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1074,24 +949,19 @@
       <c r="A26" t="n">
         <v>474</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>9:22 AM</t>
-        </is>
+      <c r="B26" t="n">
+        <v>14204.495</v>
       </c>
       <c r="C26" t="n">
-        <v>14204.495</v>
+        <v>14234.495</v>
       </c>
       <c r="D26" t="n">
-        <v>14234.495</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>40.96</v>
       </c>
       <c r="F26" t="n">
-        <v>40.96</v>
-      </c>
-      <c r="G26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1099,24 +969,19 @@
       <c r="A27" t="n">
         <v>480</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>9:25 AM</t>
-        </is>
+      <c r="B27" t="n">
+        <v>14376.725</v>
       </c>
       <c r="C27" t="n">
-        <v>14376.725</v>
+        <v>14406.725</v>
       </c>
       <c r="D27" t="n">
-        <v>14406.725</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>15.025</v>
       </c>
       <c r="F27" t="n">
-        <v>15.025</v>
-      </c>
-      <c r="G27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1124,24 +989,19 @@
       <c r="A28" t="n">
         <v>484</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>9:27 AM</t>
-        </is>
+      <c r="B28" t="n">
+        <v>14495.41</v>
       </c>
       <c r="C28" t="n">
-        <v>14495.41</v>
+        <v>14525.41</v>
       </c>
       <c r="D28" t="n">
-        <v>14525.41</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>65.56999999999999</v>
-      </c>
-      <c r="G28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1149,24 +1009,19 @@
       <c r="A29" t="n">
         <v>488</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>9:29 AM</t>
-        </is>
+      <c r="B29" t="n">
+        <v>14621.995</v>
       </c>
       <c r="C29" t="n">
-        <v>14621.995</v>
+        <v>14651.995</v>
       </c>
       <c r="D29" t="n">
-        <v>14651.995</v>
+        <v>1.415</v>
       </c>
       <c r="E29" t="n">
-        <v>1.415</v>
+        <v>113.915</v>
       </c>
       <c r="F29" t="n">
-        <v>113.915</v>
-      </c>
-      <c r="G29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,24 +1029,19 @@
       <c r="A30" t="n">
         <v>497</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>9:33 AM</t>
-        </is>
+      <c r="B30" t="n">
+        <v>14894.885</v>
       </c>
       <c r="C30" t="n">
-        <v>14894.885</v>
+        <v>14924.885</v>
       </c>
       <c r="D30" t="n">
-        <v>14924.885</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>30.35</v>
       </c>
       <c r="F30" t="n">
-        <v>30.35</v>
-      </c>
-      <c r="G30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1199,24 +1049,19 @@
       <c r="A31" t="n">
         <v>501</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>9:35 AM</t>
-        </is>
+      <c r="B31" t="n">
+        <v>15000.94</v>
       </c>
       <c r="C31" t="n">
-        <v>15000.94</v>
+        <v>15030.94</v>
       </c>
       <c r="D31" t="n">
-        <v>15030.94</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>51.39</v>
       </c>
       <c r="F31" t="n">
-        <v>51.39</v>
-      </c>
-      <c r="G31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1224,24 +1069,19 @@
       <c r="A32" t="n">
         <v>504</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>9:37 AM</t>
-        </is>
+      <c r="B32" t="n">
+        <v>15106.36</v>
       </c>
       <c r="C32" t="n">
-        <v>15106.36</v>
+        <v>15136.36</v>
       </c>
       <c r="D32" t="n">
-        <v>15136.36</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>52.755</v>
       </c>
       <c r="F32" t="n">
-        <v>52.755</v>
-      </c>
-      <c r="G32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1249,24 +1089,19 @@
       <c r="A33" t="n">
         <v>510</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>9:40 AM</t>
-        </is>
+      <c r="B33" t="n">
+        <v>15282.67</v>
       </c>
       <c r="C33" t="n">
-        <v>15282.67</v>
+        <v>15312.67</v>
       </c>
       <c r="D33" t="n">
-        <v>15312.67</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>24.24</v>
       </c>
       <c r="F33" t="n">
-        <v>24.24</v>
-      </c>
-      <c r="G33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1274,24 +1109,19 @@
       <c r="A34" t="n">
         <v>518</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>9:44 AM</t>
-        </is>
+      <c r="B34" t="n">
+        <v>15517.59</v>
       </c>
       <c r="C34" t="n">
-        <v>15517.59</v>
+        <v>15547.59</v>
       </c>
       <c r="D34" t="n">
-        <v>15547.59</v>
+        <v>20.516667</v>
       </c>
       <c r="E34" t="n">
-        <v>20.516667</v>
+        <v>0.58</v>
       </c>
       <c r="F34" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1299,24 +1129,19 @@
       <c r="A35" t="n">
         <v>568</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>10:09 A</t>
-        </is>
+      <c r="B35" t="n">
+        <v>17019.785</v>
       </c>
       <c r="C35" t="n">
-        <v>17019.785</v>
+        <v>17049.785</v>
       </c>
       <c r="D35" t="n">
-        <v>17049.785</v>
+        <v>8.845000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>8.845000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="F35" t="n">
-        <v>1.025</v>
-      </c>
-      <c r="G35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1324,24 +1149,19 @@
       <c r="A36" t="n">
         <v>576</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>10:13 A</t>
-        </is>
+      <c r="B36" t="n">
+        <v>17250.1</v>
       </c>
       <c r="C36" t="n">
-        <v>17250.1</v>
+        <v>17280.1</v>
       </c>
       <c r="D36" t="n">
-        <v>17280.1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="F36" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="G36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1349,24 +1169,19 @@
       <c r="A37" t="n">
         <v>581</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>10:15 A</t>
-        </is>
+      <c r="B37" t="n">
+        <v>17413.61</v>
       </c>
       <c r="C37" t="n">
-        <v>17413.61</v>
+        <v>17443.61</v>
       </c>
       <c r="D37" t="n">
-        <v>17443.61</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>676.14</v>
       </c>
       <c r="F37" t="n">
-        <v>676.14</v>
-      </c>
-      <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1374,24 +1189,19 @@
       <c r="A38" t="n">
         <v>983</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1:36 PM</t>
-        </is>
+      <c r="B38" t="n">
+        <v>29464.66</v>
       </c>
       <c r="C38" t="n">
-        <v>29464.66</v>
+        <v>29494.66</v>
       </c>
       <c r="D38" t="n">
-        <v>29494.66</v>
+        <v>0.803333</v>
       </c>
       <c r="E38" t="n">
-        <v>0.803333</v>
+        <v>0.78</v>
       </c>
       <c r="F38" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="G38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,24 +1209,19 @@
       <c r="A39" t="n">
         <v>999</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1:44 PM</t>
-        </is>
+      <c r="B39" t="n">
+        <v>29954.343333</v>
       </c>
       <c r="C39" t="n">
-        <v>29954.343333</v>
+        <v>29984.343333</v>
       </c>
       <c r="D39" t="n">
-        <v>29984.343333</v>
+        <v>3.856667</v>
       </c>
       <c r="E39" t="n">
-        <v>3.856667</v>
+        <v>0.826667</v>
       </c>
       <c r="F39" t="n">
-        <v>0.826667</v>
-      </c>
-      <c r="G39" t="n">
         <v>0.666667</v>
       </c>
     </row>
@@ -1424,24 +1229,19 @@
       <c r="A40" t="n">
         <v>1035</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2:02 PM</t>
-        </is>
+      <c r="B40" t="n">
+        <v>31029.245</v>
       </c>
       <c r="C40" t="n">
-        <v>31029.245</v>
+        <v>31059.245</v>
       </c>
       <c r="D40" t="n">
-        <v>31059.245</v>
+        <v>17.475</v>
       </c>
       <c r="E40" t="n">
-        <v>17.475</v>
+        <v>0.545</v>
       </c>
       <c r="F40" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="G40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1449,24 +1249,19 @@
       <c r="A41" t="n">
         <v>1043</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2:06 PM</t>
-        </is>
+      <c r="B41" t="n">
+        <v>31284.45</v>
       </c>
       <c r="C41" t="n">
-        <v>31284.45</v>
+        <v>31314.45</v>
       </c>
       <c r="D41" t="n">
-        <v>31314.45</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="F41" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="G41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1269,19 @@
       <c r="A42" t="n">
         <v>1148</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2:59 PM</t>
-        </is>
+      <c r="B42" t="n">
+        <v>34414.095</v>
       </c>
       <c r="C42" t="n">
-        <v>34414.095</v>
+        <v>34444.095</v>
       </c>
       <c r="D42" t="n">
-        <v>34444.095</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1499,24 +1289,19 @@
       <c r="A43" t="n">
         <v>1383</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>4:56 PM</t>
-        </is>
+      <c r="B43" t="n">
+        <v>41472.38</v>
       </c>
       <c r="C43" t="n">
-        <v>41472.38</v>
+        <v>41502.38</v>
       </c>
       <c r="D43" t="n">
-        <v>41502.38</v>
+        <v>7.295</v>
       </c>
       <c r="E43" t="n">
-        <v>7.295</v>
+        <v>1.325</v>
       </c>
       <c r="F43" t="n">
-        <v>1.325</v>
-      </c>
-      <c r="G43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1524,24 +1309,19 @@
       <c r="A44" t="n">
         <v>1389</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>4:59 PM</t>
-        </is>
+      <c r="B44" t="n">
+        <v>41640.85</v>
       </c>
       <c r="C44" t="n">
-        <v>41640.85</v>
+        <v>41670.85</v>
       </c>
       <c r="D44" t="n">
-        <v>41670.85</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="F44" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1549,24 +1329,19 @@
       <c r="A45" t="n">
         <v>1397</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>5:04 PM</t>
-        </is>
+      <c r="B45" t="n">
+        <v>41905.92</v>
       </c>
       <c r="C45" t="n">
-        <v>41905.92</v>
+        <v>41935.92</v>
       </c>
       <c r="D45" t="n">
-        <v>41935.92</v>
+        <v>7.78</v>
       </c>
       <c r="E45" t="n">
-        <v>7.78</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,24 +1349,19 @@
       <c r="A46" t="n">
         <v>1458</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>5:34 PM</t>
-        </is>
+      <c r="B46" t="n">
+        <v>43728.35</v>
       </c>
       <c r="C46" t="n">
-        <v>43728.35</v>
+        <v>43758.35</v>
       </c>
       <c r="D46" t="n">
-        <v>43758.35</v>
+        <v>3.405</v>
       </c>
       <c r="E46" t="n">
-        <v>3.405</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5649999999999999</v>
-      </c>
-      <c r="G46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1599,24 +1369,19 @@
       <c r="A47" t="n">
         <v>1547</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>6:19 PM</t>
-        </is>
+      <c r="B47" t="n">
+        <v>46409.81</v>
       </c>
       <c r="C47" t="n">
-        <v>46409.81</v>
+        <v>46439.81</v>
       </c>
       <c r="D47" t="n">
-        <v>46439.81</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="F47" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1624,24 +1389,19 @@
       <c r="A48" t="n">
         <v>1551</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>6:20 PM</t>
-        </is>
+      <c r="B48" t="n">
+        <v>46502.28</v>
       </c>
       <c r="C48" t="n">
-        <v>46502.28</v>
+        <v>46532.28</v>
       </c>
       <c r="D48" t="n">
-        <v>46532.28</v>
+        <v>39.27</v>
       </c>
       <c r="E48" t="n">
-        <v>39.27</v>
+        <v>1.01</v>
       </c>
       <c r="F48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1649,24 +1409,19 @@
       <c r="A49" t="n">
         <v>1558</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>6:24 PM</t>
-        </is>
+      <c r="B49" t="n">
+        <v>46717.07</v>
       </c>
       <c r="C49" t="n">
-        <v>46717.07</v>
+        <v>46747.07</v>
       </c>
       <c r="D49" t="n">
-        <v>46747.07</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="F49" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="G49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1674,24 +1429,19 @@
       <c r="A50" t="n">
         <v>1561</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>6:25 PM</t>
-        </is>
+      <c r="B50" t="n">
+        <v>46813.12</v>
       </c>
       <c r="C50" t="n">
-        <v>46813.12</v>
+        <v>46843.12</v>
       </c>
       <c r="D50" t="n">
-        <v>46843.12</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="F50" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1699,24 +1449,19 @@
       <c r="A51" t="n">
         <v>1608</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>6:49 PM</t>
-        </is>
+      <c r="B51" t="n">
+        <v>48231.23</v>
       </c>
       <c r="C51" t="n">
-        <v>48231.23</v>
+        <v>48261.23</v>
       </c>
       <c r="D51" t="n">
-        <v>48261.23</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.695</v>
       </c>
       <c r="F51" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="G51" t="n">
         <v>0</v>
       </c>
     </row>
